--- a/customer_data.xlsx
+++ b/customer_data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -442,9 +442,89 @@
         <v>21/3/2025, 11:52:48 pm</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>mahul</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Male</v>
+      </c>
+      <c r="C3">
+        <v>33</v>
+      </c>
+      <c r="D3" t="str">
+        <v>apple</v>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v>22/3/2025, 1:19:36 am</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>mahul</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Male</v>
+      </c>
+      <c r="C4">
+        <v>33</v>
+      </c>
+      <c r="D4" t="str">
+        <v>apple</v>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v>22/3/2025, 1:19:36 am</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>mahul</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Male</v>
+      </c>
+      <c r="C5">
+        <v>339</v>
+      </c>
+      <c r="D5" t="str">
+        <v>apple</v>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v>22/3/2025, 1:19:42 am</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>n</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="D6" t="str">
+        <v>apple</v>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v>22/3/2025, 1:19:56 am</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
   </ignoredErrors>
 </worksheet>
 </file>